--- a/data/trans_dic/IP19C07-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C07-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>3,43%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,2; 18,37</t>
+          <t>0,61; 5,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 17,1</t>
+          <t>2,55; 9,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 10,78</t>
+          <t>1,39; 6,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,52</t>
+          <t>1,08; 7,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,17; 22,49</t>
+          <t>0,57; 5,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,85; 17,64</t>
+          <t>2,12; 8,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,95; 16,72</t>
+          <t>0,36; 4,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,53; 13,66</t>
+          <t>1,49; 8,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,6; 19,09</t>
+          <t>0,88; 3,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,51; 15,83</t>
+          <t>3,11; 7,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,79</t>
+          <t>1,21; 4,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,59</t>
+          <t>1,7; 6,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>8,42%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,89</t>
+          <t>11,2; 18,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 9,46</t>
+          <t>9,51; 17,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 6,72</t>
+          <t>4,8; 10,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,27</t>
+          <t>4,98; 10,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,25</t>
+          <t>14,17; 22,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 8,36</t>
+          <t>9,85; 17,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,34</t>
+          <t>8,95; 16,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 8,01</t>
+          <t>6,53; 13,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,87</t>
+          <t>13,6; 19,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,68</t>
+          <t>10,51; 15,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,26</t>
+          <t>7,75; 12,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,02</t>
+          <t>6,4; 10,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C07-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C07-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -691,17 +691,17 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,28</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>0; 20,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,74</t>
+          <t>0,0; 77,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0; 30,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,59</t>
+          <t>0; 15,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,04</t>
+          <t>0,0; 51,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,66</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,01</t>
+          <t>0; 9,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>2,48%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,89</t>
+          <t>0,0; 4,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 9,46</t>
+          <t>0,76; 7,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 6,72</t>
+          <t>0,71; 6,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,27</t>
+          <t>0,7; 7,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,25</t>
+          <t>0; 1,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 8,36</t>
+          <t>0,0; 3,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,34</t>
+          <t>0,0; 4,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 8,01</t>
+          <t>0,0; 7,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,87</t>
+          <t>0,0; 2,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,68</t>
+          <t>0,81; 5,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,26</t>
+          <t>0,74; 4,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,02</t>
+          <t>0,75; 6,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,2; 18,37</t>
+          <t>1,9; 8,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,51; 17,1</t>
+          <t>5,13; 13,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 10,78</t>
+          <t>1,92; 7,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,52</t>
+          <t>3,57; 11,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,17; 22,49</t>
+          <t>6,81; 17,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,85; 17,64</t>
+          <t>3,97; 11,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,95; 16,72</t>
+          <t>0,81; 5,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 13,66</t>
+          <t>1,11; 6,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 19,09</t>
+          <t>5,22; 11,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,51; 15,83</t>
+          <t>5,45; 10,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,79</t>
+          <t>1,95; 5,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,59</t>
+          <t>3,17; 7,68</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>9,56%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 12,91</t>
+          <t>13,06; 22,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,56; 12,71</t>
+          <t>11,03; 21,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,05</t>
+          <t>5,67; 13,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 8,11</t>
+          <t>4,26; 10,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,37; 15,09</t>
+          <t>14,26; 24,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 12,55</t>
+          <t>12,39; 21,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,05</t>
+          <t>12,56; 23,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,5</t>
+          <t>8,76; 17,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,16; 13,06</t>
+          <t>14,65; 21,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 11,88</t>
+          <t>12,81; 19,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 8,62</t>
+          <t>10,17; 17,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,4</t>
+          <t>7,14; 12,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10,01%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,88%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,68%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,78%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11,1%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,92%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7,98; 13,01</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7,3; 12,49</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 7,89</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,14; 8,06</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9,68; 15,52</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7,41; 12,27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 10,89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,55; 10,63</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9,36; 13,18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8,04; 11,68</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,59; 8,94</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 8,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP19C07-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C07-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,35</t>
+          <t>0,0; 72,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,59</t>
+          <t>0,0; 51,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,94</t>
+          <t>0,0; 4,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,81</t>
+          <t>0,77; 8,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,59</t>
+          <t>0,75; 6,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,99</t>
+          <t>0,53; 7,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,37 +889,37 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,93</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,08</t>
+          <t>0,0; 5,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,21</t>
+          <t>0,0; 7,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,04</t>
+          <t>0,78; 5,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,37</t>
+          <t>0,41; 4,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,13</t>
+          <t>0,76; 5,75</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 8,91</t>
+          <t>2,07; 9,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 13,75</t>
+          <t>5,44; 13,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 7,52</t>
+          <t>1,96; 7,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 11,0</t>
+          <t>3,54; 10,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,81; 17,08</t>
+          <t>6,24; 16,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 11,24</t>
+          <t>3,92; 11,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,44</t>
+          <t>0,85; 6,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,16</t>
+          <t>1,07; 6,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 11,47</t>
+          <t>5,2; 11,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 10,9</t>
+          <t>5,39; 10,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,53</t>
+          <t>1,99; 5,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,68</t>
+          <t>3,16; 7,91</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,06; 22,25</t>
+          <t>12,57; 22,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,03; 21,36</t>
+          <t>10,54; 20,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,67; 13,9</t>
+          <t>5,51; 13,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 10,72</t>
+          <t>4,03; 10,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,26; 24,6</t>
+          <t>14,38; 24,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,39; 21,97</t>
+          <t>12,3; 22,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,56; 23,28</t>
+          <t>12,16; 23,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 17,26</t>
+          <t>8,8; 17,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,65; 21,59</t>
+          <t>15,05; 21,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,81; 19,94</t>
+          <t>12,56; 19,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 17,19</t>
+          <t>10,09; 17,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,14; 12,28</t>
+          <t>7,04; 12,48</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,98; 13,01</t>
+          <t>7,66; 13,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,49</t>
+          <t>7,58; 12,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,89</t>
+          <t>3,8; 7,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,06</t>
+          <t>4,17; 8,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,68; 15,52</t>
+          <t>9,61; 15,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 12,27</t>
+          <t>7,4; 12,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 10,89</t>
+          <t>6,03; 11,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 10,63</t>
+          <t>5,55; 10,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,36; 13,18</t>
+          <t>9,26; 13,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,04; 11,68</t>
+          <t>8,0; 11,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,94</t>
+          <t>5,51; 8,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,3</t>
+          <t>5,41; 8,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C07-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C07-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,27 +656,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>19,67%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>19,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -724,47 +724,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 77,02</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 30,57</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0; 15,69</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 44,41</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 77,15</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>0; 56,93</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>0; 20,75</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 72,01</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 30,57</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 15,69</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,97</t>
+          <t>0,0; 58,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>1,64%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>3,31%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>2,81%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,61%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,96%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,0%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,42%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,98</t>
+          <t>0; 1,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,31</t>
+          <t>0,0; 4,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,7</t>
+          <t>0,0; 6,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 7,12</t>
+          <t>0,0; 7,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>0,0; 5,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,75; 7,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,49</t>
+          <t>0,73; 7,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,63</t>
+          <t>0,51; 7,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,71</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,15</t>
+          <t>0,76; 4,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,32</t>
+          <t>0,74; 4,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 5,75</t>
+          <t>0,76; 5,73</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>11,07%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,52%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>4,68%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>8,74%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>4,21%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,48%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,07%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,88%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,52%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,91%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 9,26</t>
+          <t>6,53; 16,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 13,81</t>
+          <t>3,85; 11,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,45</t>
+          <t>0,81; 5,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 10,77</t>
+          <t>1,34; 6,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,24; 16,84</t>
+          <t>1,87; 8,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 11,37</t>
+          <t>5,33; 13,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,15</t>
+          <t>1,93; 7,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 6,23</t>
+          <t>3,43; 10,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 11,18</t>
+          <t>4,9; 10,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 10,65</t>
+          <t>5,44; 10,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,57</t>
+          <t>1,91; 5,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,91</t>
+          <t>3,06; 7,6</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>19,05%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16,85%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17,31%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12,69%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>17,25%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>15,27%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>9,09%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,74%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>19,05%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>16,85%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>17,31%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>9,35%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,57; 22,08</t>
+          <t>14,28; 24,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,54; 20,76</t>
+          <t>12,58; 22,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 13,55</t>
+          <t>12,87; 24,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 10,17</t>
+          <t>8,76; 17,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 24,32</t>
+          <t>12,92; 22,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,3; 22,54</t>
+          <t>11,38; 21,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,16; 23,35</t>
+          <t>5,5; 14,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 17,67</t>
+          <t>4,14; 10,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,05; 21,49</t>
+          <t>15,09; 21,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,56; 19,51</t>
+          <t>13,0; 20,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 17,07</t>
+          <t>10,27; 17,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,04; 12,48</t>
+          <t>7,1; 12,39</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,68%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>10,01%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>9,88%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>5,68%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>12,22%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9,68%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,17%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,65%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,66; 13,08</t>
+          <t>9,37; 15,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,58; 12,59</t>
+          <t>7,43; 12,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,88</t>
+          <t>5,96; 11,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 8,3</t>
+          <t>5,62; 10,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,61; 15,23</t>
+          <t>7,67; 12,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,4; 12,56</t>
+          <t>7,56; 12,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 11,08</t>
+          <t>4,08; 8,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 10,37</t>
+          <t>4,04; 7,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,26; 13,0</t>
+          <t>9,16; 13,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,0; 11,81</t>
+          <t>8,1; 11,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,53</t>
+          <t>5,55; 8,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,41</t>
+          <t>5,14; 8,24</t>
         </is>
       </c>
     </row>
